--- a/data/MetadatenExpositionsdaten.xlsx
+++ b/data/MetadatenExpositionsdaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lochmannm\Documents\GitHub\Hessen_END_Healthiar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A6DE7C-6022-4905-BBC8-0AF2BBDC1E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E1E603-3F70-42A7-B5B4-B964F1453A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20565" yWindow="4935" windowWidth="15975" windowHeight="8475" xr2:uid="{B4D014CE-6812-4FFB-AE73-BC39DB73EFC7}"/>
+    <workbookView xWindow="-28920" yWindow="-1980" windowWidth="29040" windowHeight="17520" xr2:uid="{B4D014CE-6812-4FFB-AE73-BC39DB73EFC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>Straße</t>
   </si>
@@ -146,12 +146,18 @@
   </si>
   <si>
     <t>Tabelle1</t>
+  </si>
+  <si>
+    <t>aus wie vielen Ziffern besteht der Geoschlüssel? Also AGS oder GKZ.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -500,7 +507,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +545,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -570,7 +577,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -602,7 +609,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -634,7 +641,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -666,7 +673,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -698,7 +705,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -730,7 +737,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -762,7 +769,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -795,20 +802,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B583C6D1-357D-43AC-A35A-CF8A382ECC95}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -818,29 +826,29 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -849,6 +857,9 @@
       </c>
       <c r="C2" t="s">
         <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
